--- a/stock_historical_data/1wk/ANDHRAPET.BO.xlsx
+++ b/stock_historical_data/1wk/ANDHRAPET.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1236"/>
+  <dimension ref="A1:R1245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69565,7 +69565,7 @@
         <v>24</v>
       </c>
       <c r="O1234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1234" t="n">
         <v>0</v>
@@ -69629,7 +69629,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69683,7 +69685,477 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>74.56999969482422</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>73</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>75.44000244140625</v>
+      </c>
+      <c r="F1237" t="inlineStr"/>
+      <c r="G1237" t="n">
+        <v>262484</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>75.98999786376953</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>75.98999786376953</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>71.01999664306641</v>
+      </c>
+      <c r="F1238" t="inlineStr"/>
+      <c r="G1238" t="n">
+        <v>320398</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>65.20999908447266</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>70.58000183105469</v>
+      </c>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="n">
+        <v>285497</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>69.87000274658203</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>68</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>68.55000305175781</v>
+      </c>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="n">
+        <v>250330</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>69</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>71.80000305175781</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>63.15000152587891</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>71.22000122070312</v>
+      </c>
+      <c r="F1241" t="inlineStr"/>
+      <c r="G1241" t="n">
+        <v>361923</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>71</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>71</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>65.59999847412109</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>67.01999664306641</v>
+      </c>
+      <c r="F1242" t="inlineStr"/>
+      <c r="G1242" t="n">
+        <v>254086</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>62.09999847412109</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>64.94999694824219</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>52.02000045776367</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>54.13000106811523</v>
+      </c>
+      <c r="F1243" t="inlineStr"/>
+      <c r="G1243" t="n">
+        <v>573404</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>54.84999847412109</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>58.13000106811523</v>
+      </c>
+      <c r="F1244" t="inlineStr"/>
+      <c r="G1244" t="n">
+        <v>393367</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>57.9900016784668</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>52.84000015258789</v>
+      </c>
+      <c r="F1245" t="inlineStr"/>
+      <c r="G1245" t="n">
+        <v>383203</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ANDHRAPET.BO.xlsx
+++ b/stock_historical_data/1wk/ANDHRAPET.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1245"/>
+  <dimension ref="A1:R1254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -69739,7 +69739,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69791,7 +69793,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69843,7 +69847,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69895,7 +69901,9 @@
       <c r="Q1240" t="n">
         <v>2</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69947,7 +69955,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -69999,7 +70009,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70051,7 +70063,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70103,7 +70117,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70155,7 +70171,477 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>53.20000076293945</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>55.20000076293945</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>53.09000015258789</v>
+      </c>
+      <c r="F1246" t="inlineStr"/>
+      <c r="G1246" t="n">
+        <v>632125</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>53.45000076293945</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>53.45000076293945</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>51.40999984741211</v>
+      </c>
+      <c r="F1247" t="inlineStr"/>
+      <c r="G1247" t="n">
+        <v>384167</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>51.95000076293945</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>53.20000076293945</v>
+      </c>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="n">
+        <v>957256</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>54.58000183105469</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>54.58000183105469</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>48.9900016784668</v>
+      </c>
+      <c r="F1249" t="inlineStr"/>
+      <c r="G1249" t="n">
+        <v>1319351</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>48.70000076293945</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>53.45000076293945</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>48.70000076293945</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>52.45999908447266</v>
+      </c>
+      <c r="F1250" t="inlineStr"/>
+      <c r="G1250" t="n">
+        <v>311776</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>52.38999938964844</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>51.88999938964844</v>
+      </c>
+      <c r="F1251" t="inlineStr"/>
+      <c r="G1251" t="n">
+        <v>148219</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>57.18999862670898</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>56.56000137329102</v>
+      </c>
+      <c r="F1252" t="inlineStr"/>
+      <c r="G1252" t="n">
+        <v>289441</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>58.34999847412109</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>55.45000076293945</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>56.45999908447266</v>
+      </c>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="n">
+        <v>398377</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>56.15000152587891</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>57.84000015258789</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>55.11999893188477</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>55.16999816894531</v>
+      </c>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="n">
+        <v>86604</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
